--- a/biology/Zoologie/Chalcididae/Chalcididae.xlsx
+++ b/biology/Zoologie/Chalcididae/Chalcididae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Chalcididae forment une famille d'insectes hyménoptères apocrites de la super-famille des Chalcidoidea. 
 Les 3 500 espèces de Chalcididae se répartissent en 5 sous-familles et 70 genres.
@@ -512,7 +524,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ils sont assez grands, d'une taille de 2,5 à 12 mm. Le corps est d'un aspect robuste, le plus souvent noir ou sombre, fortement sculpté, taché de rouge ou de jaune mais rarement d'éclat métallique.
 La tête est petite, triangulaire, à antennes souvent courtes de 11 à 13 articles, sans massue. Le fémur postérieur est très élargi, denté ou poilu en dessous. L'ovipositeur est court et droit.
@@ -558,10 +572,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sous-familles
-Chalcidinae - Dirhininae - Epitraninae - Haltichellinae - Smicromorphinae
-Genres
-Haltichella, Hockeria, Schwarzella, Invreia, Brachymeria, Enacia, Psylochalcis, Phasgonophora, Euchalcis, Neochalcis, Hybothorax, Hippota, Microchalcis, etc.
+          <t>Sous-familles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chalcidinae - Dirhininae - Epitraninae - Haltichellinae - Smicromorphinae
 </t>
         </is>
       </c>
@@ -587,10 +604,49 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Genres</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Haltichella, Hockeria, Schwarzella, Invreia, Brachymeria, Enacia, Psylochalcis, Phasgonophora, Euchalcis, Neochalcis, Hybothorax, Hippota, Microchalcis, etc.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Chalcididae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chalcididae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont en majorité des endoparasites solitaires de nymphes de lépidoptères ou de larves de diptères et secondairement d'hyménoptères, coléoptères ou neuroptères.
 Les Chalcidini (291 espèces en 96) sont bien représentés en Amérique tropicale, notamment en zone forestière.
@@ -600,31 +656,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Chalcididae</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Chalcididae</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Utilisation en lutte biologique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce Brachymeria intermedia parasite un ravageur important de la sylviculture, le lépidoptère Lymantria dispar, mais il n'est pas utilisable dans une lutte directe. Souvent, les Chalcididae ont une très faible spécificité, ce qui limite considérablement leur utilisation en lutte biologique.
 En provenance d'Hawaii, Dirrhinus giffardi a été lâché en 1962 et 63 à Madagascar, pour lutter contre la mouche des fruits Ceratitis malagassi en compagnie de 3 espèces d'Opius (Braconidae). Les lâchers, mal préparés, ont été un échec.
